--- a/Executive Data Summary Quarter Report.xlsx
+++ b/Executive Data Summary Quarter Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B0D3148-6D76-4EF9-8D17-8F2549659FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE6938D3-E312-498B-ACDD-7F72BF5F2D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-132" yWindow="-132" windowWidth="23304" windowHeight="12504" xr2:uid="{76F2D8FE-0054-4598-9C36-C1C28E4F078D}"/>
   </bookViews>
@@ -502,11 +502,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="6">
+    <numFmt numFmtId="44" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="mm/dd/yy;@"/>
     <numFmt numFmtId="167" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="172" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -580,11 +582,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -617,44 +620,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -665,25 +638,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{053A2B58-DC98-4E36-8A61-C03983845F10}" name="Table2" displayName="Table2" ref="I1:R1048576" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="I1:R1048576" xr:uid="{053A2B58-DC98-4E36-8A61-C03983845F10}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{F4331BB3-D474-42BC-A205-D5C98F68BEEC}" name="Product Name"/>
-    <tableColumn id="2" xr3:uid="{3BBC2BCD-A86F-4D0D-BA48-1DDB5D1BAF45}" name="Order Date"/>
-    <tableColumn id="3" xr3:uid="{2FB769F6-6018-42E2-BC4E-34FF65CFDD6F}" name="Month"/>
-    <tableColumn id="4" xr3:uid="{9E60EC89-B704-4A7C-8CA7-48E2EDBB0721}" name="Year"/>
-    <tableColumn id="5" xr3:uid="{64B59009-2AFE-44D5-A2A6-2B5603CF4CC0}" name="Wholesale Price"/>
-    <tableColumn id="6" xr3:uid="{DA92A9E5-2FEE-4E03-8545-0A381774E8E4}" name="Retail Price"/>
-    <tableColumn id="7" xr3:uid="{396CA880-5CCF-4BC8-B125-536E2DE43CF9}" name="Order Quantity"/>
-    <tableColumn id="8" xr3:uid="{D562B88C-4E86-4599-94E1-2CE02F48AD23}" name=" Total (Before Tax)" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{24FE8E16-6892-4C9A-AD17-C26389105AD6}" name="Tax Due" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{657B5C66-8CAE-497C-80FC-C2E73E4F131D}" name="Order Total"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -986,8 +940,8 @@
   <dimension ref="A1:Y246"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C21" sqref="C21"/>
+      <pane xSplit="6" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D12" sqref="D12:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1001,14 +955,13 @@
     <col min="7" max="7" width="14.33203125" customWidth="1"/>
     <col min="8" max="8" width="17.109375" customWidth="1"/>
     <col min="9" max="9" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.109375" customWidth="1"/>
-    <col min="11" max="12" width="10.6640625" customWidth="1"/>
-    <col min="13" max="13" width="16.21875" customWidth="1"/>
-    <col min="14" max="14" width="12.21875" customWidth="1"/>
-    <col min="15" max="15" width="15.5546875" customWidth="1"/>
-    <col min="16" max="16" width="18.33203125" style="15" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="10.6640625" customWidth="1"/>
+    <col min="14" max="14" width="9.33203125" customWidth="1"/>
+    <col min="15" max="15" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.88671875" style="15" customWidth="1"/>
     <col min="17" max="17" width="11" style="15" customWidth="1"/>
-    <col min="18" max="18" width="12.44140625" customWidth="1"/>
+    <col min="18" max="18" width="11" customWidth="1"/>
     <col min="19" max="19" width="13.44140625" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="12.44140625" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="8.44140625" hidden="1" customWidth="1"/>
@@ -1113,12 +1066,12 @@
       <c r="O2" s="10">
         <v>2</v>
       </c>
-      <c r="P2" s="14">
-        <f>PRODUCT(N2,O2)</f>
+      <c r="P2" s="12">
+        <f>N2*O2</f>
         <v>2400</v>
       </c>
       <c r="Q2" s="14">
-        <f>IF(P2&gt;2000,P2*0.05,0)</f>
+        <f>IF(P2&gt;2000,P2*5%,0)</f>
         <v>120</v>
       </c>
       <c r="R2" s="12">
@@ -1180,12 +1133,12 @@
       <c r="O3" s="10">
         <v>2</v>
       </c>
-      <c r="P3" s="14">
-        <f t="shared" ref="P3:P66" si="0">PRODUCT(N3,O3)</f>
+      <c r="P3" s="12">
+        <f t="shared" ref="P3:P66" si="0">N3*O3</f>
         <v>4000</v>
       </c>
       <c r="Q3" s="14">
-        <f t="shared" ref="Q3:Q66" si="1">IF(P3&gt;2000,P3*0.05,0)</f>
+        <f t="shared" ref="Q3:Q66" si="1">IF(P3&gt;2000,P3*5%,0)</f>
         <v>200</v>
       </c>
       <c r="R3" s="12">
@@ -1253,7 +1206,7 @@
       <c r="O4" s="10">
         <v>2</v>
       </c>
-      <c r="P4" s="14">
+      <c r="P4" s="12">
         <f t="shared" si="0"/>
         <v>2400</v>
       </c>
@@ -1329,7 +1282,7 @@
       <c r="O5" s="10">
         <v>1</v>
       </c>
-      <c r="P5" s="14">
+      <c r="P5" s="12">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
@@ -1364,17 +1317,17 @@
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B6" s="3">
-        <f>SUMIF(L2:L246, 2022, Q2:Q246)</f>
-        <v>13900</v>
+      <c r="B6" s="16">
+        <f>SUMIF(L2:L246, 2022, R2:R246)</f>
+        <v>330500</v>
       </c>
       <c r="C6" s="3">
-        <f>SUMIF(L2:L246, 2023, Q2:Q246)</f>
-        <v>18730</v>
+        <f>SUMIF(L2:L246, 2023, R2:R246)</f>
+        <v>453830</v>
       </c>
       <c r="D6" s="4">
         <f>(C6-B6)/B6</f>
-        <v>0.34748201438848919</v>
+        <v>0.37316187594553707</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="10">
@@ -1409,7 +1362,7 @@
       <c r="O6" s="10">
         <v>1</v>
       </c>
-      <c r="P6" s="14">
+      <c r="P6" s="12">
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
@@ -1480,7 +1433,7 @@
       <c r="O7" s="10">
         <v>1</v>
       </c>
-      <c r="P7" s="14">
+      <c r="P7" s="12">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
@@ -1551,7 +1504,7 @@
       <c r="O8" s="10">
         <v>3</v>
       </c>
-      <c r="P8" s="14">
+      <c r="P8" s="12">
         <f t="shared" si="0"/>
         <v>5400</v>
       </c>
@@ -1620,7 +1573,7 @@
       <c r="O9" s="10">
         <v>3</v>
       </c>
-      <c r="P9" s="14">
+      <c r="P9" s="12">
         <f t="shared" si="0"/>
         <v>5400</v>
       </c>
@@ -1693,7 +1646,7 @@
       <c r="O10" s="10">
         <v>1</v>
       </c>
-      <c r="P10" s="14">
+      <c r="P10" s="12">
         <f t="shared" si="0"/>
         <v>2100</v>
       </c>
@@ -1770,7 +1723,7 @@
       <c r="O11" s="10">
         <v>1</v>
       </c>
-      <c r="P11" s="14">
+      <c r="P11" s="12">
         <f t="shared" si="0"/>
         <v>2100</v>
       </c>
@@ -1817,8 +1770,8 @@
         <v>143555</v>
       </c>
       <c r="D12" s="2">
-        <f>(C12-B12)/C12</f>
-        <v>0.29229215283340881</v>
+        <f>(C12-B12)/B12</f>
+        <v>0.41301245140016735</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="10">
@@ -1853,7 +1806,7 @@
       <c r="O12" s="10">
         <v>2</v>
       </c>
-      <c r="P12" s="14">
+      <c r="P12" s="12">
         <f t="shared" si="0"/>
         <v>2600</v>
       </c>
@@ -1900,8 +1853,8 @@
         <v>145535</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" ref="D13:D14" si="2">(C13-B13)/C13</f>
-        <v>0.22049678771429554</v>
+        <f t="shared" ref="D13:D14" si="2">(C13-B13)/B13</f>
+        <v>0.28286835030190843</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="10">
@@ -1936,7 +1889,7 @@
       <c r="O13" s="10">
         <v>2</v>
       </c>
-      <c r="P13" s="14">
+      <c r="P13" s="12">
         <f t="shared" si="0"/>
         <v>2600</v>
       </c>
@@ -1984,7 +1937,7 @@
       </c>
       <c r="D14" s="2">
         <f t="shared" si="2"/>
-        <v>0.29913803569260655</v>
+        <v>0.42681448120561233</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="10">
@@ -2019,7 +1972,7 @@
       <c r="O14" s="10">
         <v>1</v>
       </c>
-      <c r="P14" s="14">
+      <c r="P14" s="12">
         <f t="shared" si="0"/>
         <v>1600</v>
       </c>
@@ -2086,7 +2039,7 @@
       <c r="O15" s="10">
         <v>1</v>
       </c>
-      <c r="P15" s="14">
+      <c r="P15" s="12">
         <f t="shared" si="0"/>
         <v>1600</v>
       </c>
@@ -2153,7 +2106,7 @@
       <c r="O16" s="10">
         <v>2</v>
       </c>
-      <c r="P16" s="14">
+      <c r="P16" s="12">
         <f t="shared" si="0"/>
         <v>4400</v>
       </c>
@@ -2222,7 +2175,7 @@
       <c r="O17" s="10">
         <v>1</v>
       </c>
-      <c r="P17" s="14">
+      <c r="P17" s="12">
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
@@ -2289,7 +2242,7 @@
       <c r="O18" s="10">
         <v>3</v>
       </c>
-      <c r="P18" s="14">
+      <c r="P18" s="12">
         <f t="shared" si="0"/>
         <v>5700</v>
       </c>
@@ -2356,7 +2309,7 @@
       <c r="O19" s="10">
         <v>1</v>
       </c>
-      <c r="P19" s="14">
+      <c r="P19" s="12">
         <f t="shared" si="0"/>
         <v>2200</v>
       </c>
@@ -2423,7 +2376,7 @@
       <c r="O20" s="10">
         <v>2</v>
       </c>
-      <c r="P20" s="14">
+      <c r="P20" s="12">
         <f t="shared" si="0"/>
         <v>4000</v>
       </c>
@@ -2490,7 +2443,7 @@
       <c r="O21" s="10">
         <v>2</v>
       </c>
-      <c r="P21" s="14">
+      <c r="P21" s="12">
         <f t="shared" si="0"/>
         <v>4000</v>
       </c>
@@ -2557,7 +2510,7 @@
       <c r="O22" s="10">
         <v>1</v>
       </c>
-      <c r="P22" s="14">
+      <c r="P22" s="12">
         <f t="shared" si="0"/>
         <v>2300</v>
       </c>
@@ -2624,7 +2577,7 @@
       <c r="O23" s="10">
         <v>1</v>
       </c>
-      <c r="P23" s="14">
+      <c r="P23" s="12">
         <f t="shared" si="0"/>
         <v>2300</v>
       </c>
@@ -2691,7 +2644,7 @@
       <c r="O24" s="10">
         <v>2</v>
       </c>
-      <c r="P24" s="14">
+      <c r="P24" s="12">
         <f t="shared" si="0"/>
         <v>6000</v>
       </c>
@@ -2758,7 +2711,7 @@
       <c r="O25" s="10">
         <v>1</v>
       </c>
-      <c r="P25" s="14">
+      <c r="P25" s="12">
         <f t="shared" si="0"/>
         <v>3500</v>
       </c>
@@ -2825,7 +2778,7 @@
       <c r="O26" s="10">
         <v>2</v>
       </c>
-      <c r="P26" s="14">
+      <c r="P26" s="12">
         <f t="shared" si="0"/>
         <v>2200</v>
       </c>
@@ -2892,7 +2845,7 @@
       <c r="O27" s="10">
         <v>1</v>
       </c>
-      <c r="P27" s="14">
+      <c r="P27" s="12">
         <f t="shared" si="0"/>
         <v>1400</v>
       </c>
@@ -2959,7 +2912,7 @@
       <c r="O28" s="10">
         <v>3</v>
       </c>
-      <c r="P28" s="14">
+      <c r="P28" s="12">
         <f t="shared" si="0"/>
         <v>5100</v>
       </c>
@@ -3026,7 +2979,7 @@
       <c r="O29" s="10">
         <v>1</v>
       </c>
-      <c r="P29" s="14">
+      <c r="P29" s="12">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
@@ -3093,7 +3046,7 @@
       <c r="O30" s="10">
         <v>2</v>
       </c>
-      <c r="P30" s="14">
+      <c r="P30" s="12">
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
@@ -3160,7 +3113,7 @@
       <c r="O31" s="10">
         <v>1</v>
       </c>
-      <c r="P31" s="14">
+      <c r="P31" s="12">
         <f t="shared" si="0"/>
         <v>1800</v>
       </c>
@@ -3227,7 +3180,7 @@
       <c r="O32" s="10">
         <v>2</v>
       </c>
-      <c r="P32" s="14">
+      <c r="P32" s="12">
         <f t="shared" si="0"/>
         <v>4600</v>
       </c>
@@ -3294,7 +3247,7 @@
       <c r="O33" s="10">
         <v>1</v>
       </c>
-      <c r="P33" s="14">
+      <c r="P33" s="12">
         <f t="shared" si="0"/>
         <v>2600</v>
       </c>
@@ -3361,7 +3314,7 @@
       <c r="O34" s="10">
         <v>2</v>
       </c>
-      <c r="P34" s="14">
+      <c r="P34" s="12">
         <f t="shared" si="0"/>
         <v>4000</v>
       </c>
@@ -3428,7 +3381,7 @@
       <c r="O35" s="10">
         <v>2</v>
       </c>
-      <c r="P35" s="14">
+      <c r="P35" s="12">
         <f t="shared" si="0"/>
         <v>2400</v>
       </c>
@@ -3495,7 +3448,7 @@
       <c r="O36" s="10">
         <v>1</v>
       </c>
-      <c r="P36" s="14">
+      <c r="P36" s="12">
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
@@ -3562,7 +3515,7 @@
       <c r="O37" s="10">
         <v>1</v>
       </c>
-      <c r="P37" s="14">
+      <c r="P37" s="12">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
@@ -3629,7 +3582,7 @@
       <c r="O38" s="10">
         <v>3</v>
       </c>
-      <c r="P38" s="14">
+      <c r="P38" s="12">
         <f t="shared" si="0"/>
         <v>5100</v>
       </c>
@@ -3696,7 +3649,7 @@
       <c r="O39" s="10">
         <v>3</v>
       </c>
-      <c r="P39" s="14">
+      <c r="P39" s="12">
         <f t="shared" si="0"/>
         <v>5400</v>
       </c>
@@ -3763,7 +3716,7 @@
       <c r="O40" s="10">
         <v>1</v>
       </c>
-      <c r="P40" s="14">
+      <c r="P40" s="12">
         <f t="shared" si="0"/>
         <v>2100</v>
       </c>
@@ -3830,7 +3783,7 @@
       <c r="O41" s="10">
         <v>1</v>
       </c>
-      <c r="P41" s="14">
+      <c r="P41" s="12">
         <f t="shared" si="0"/>
         <v>2100</v>
       </c>
@@ -3897,7 +3850,7 @@
       <c r="O42" s="10">
         <v>2</v>
       </c>
-      <c r="P42" s="14">
+      <c r="P42" s="12">
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
@@ -3964,7 +3917,7 @@
       <c r="O43" s="10">
         <v>2</v>
       </c>
-      <c r="P43" s="14">
+      <c r="P43" s="12">
         <f t="shared" si="0"/>
         <v>2600</v>
       </c>
@@ -4031,7 +3984,7 @@
       <c r="O44" s="10">
         <v>1</v>
       </c>
-      <c r="P44" s="14">
+      <c r="P44" s="12">
         <f t="shared" si="0"/>
         <v>1800</v>
       </c>
@@ -4098,7 +4051,7 @@
       <c r="O45" s="10">
         <v>1</v>
       </c>
-      <c r="P45" s="14">
+      <c r="P45" s="12">
         <f t="shared" si="0"/>
         <v>1600</v>
       </c>
@@ -4165,7 +4118,7 @@
       <c r="O46" s="10">
         <v>2</v>
       </c>
-      <c r="P46" s="14">
+      <c r="P46" s="12">
         <f t="shared" si="0"/>
         <v>6400</v>
       </c>
@@ -4232,7 +4185,7 @@
       <c r="O47" s="10">
         <v>2</v>
       </c>
-      <c r="P47" s="14">
+      <c r="P47" s="12">
         <f t="shared" si="0"/>
         <v>4400</v>
       </c>
@@ -4299,7 +4252,7 @@
       <c r="O48" s="10">
         <v>2</v>
       </c>
-      <c r="P48" s="14">
+      <c r="P48" s="12">
         <f t="shared" si="0"/>
         <v>4400</v>
       </c>
@@ -4366,7 +4319,7 @@
       <c r="O49" s="10">
         <v>1</v>
       </c>
-      <c r="P49" s="14">
+      <c r="P49" s="12">
         <f t="shared" si="0"/>
         <v>3700</v>
       </c>
@@ -4433,7 +4386,7 @@
       <c r="O50" s="10">
         <v>1</v>
       </c>
-      <c r="P50" s="14">
+      <c r="P50" s="12">
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
@@ -4500,7 +4453,7 @@
       <c r="O51" s="10">
         <v>1</v>
       </c>
-      <c r="P51" s="14">
+      <c r="P51" s="12">
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
@@ -4567,7 +4520,7 @@
       <c r="O52" s="10">
         <v>2</v>
       </c>
-      <c r="P52" s="14">
+      <c r="P52" s="12">
         <f t="shared" si="0"/>
         <v>2600</v>
       </c>
@@ -4634,7 +4587,7 @@
       <c r="O53" s="10">
         <v>1</v>
       </c>
-      <c r="P53" s="14">
+      <c r="P53" s="12">
         <f t="shared" si="0"/>
         <v>1600</v>
       </c>
@@ -4701,7 +4654,7 @@
       <c r="O54" s="10">
         <v>3</v>
       </c>
-      <c r="P54" s="14">
+      <c r="P54" s="12">
         <f t="shared" si="0"/>
         <v>5700</v>
       </c>
@@ -4768,7 +4721,7 @@
       <c r="O55" s="10">
         <v>1</v>
       </c>
-      <c r="P55" s="14">
+      <c r="P55" s="12">
         <f t="shared" si="0"/>
         <v>2200</v>
       </c>
@@ -4835,7 +4788,7 @@
       <c r="O56" s="10">
         <v>2</v>
       </c>
-      <c r="P56" s="14">
+      <c r="P56" s="12">
         <f t="shared" si="0"/>
         <v>4000</v>
       </c>
@@ -4902,7 +4855,7 @@
       <c r="O57" s="10">
         <v>1</v>
       </c>
-      <c r="P57" s="14">
+      <c r="P57" s="12">
         <f t="shared" si="0"/>
         <v>2300</v>
       </c>
@@ -4969,7 +4922,7 @@
       <c r="O58" s="10">
         <v>2</v>
       </c>
-      <c r="P58" s="14">
+      <c r="P58" s="12">
         <f t="shared" si="0"/>
         <v>6000</v>
       </c>
@@ -5036,7 +4989,7 @@
       <c r="O59" s="10">
         <v>1</v>
       </c>
-      <c r="P59" s="14">
+      <c r="P59" s="12">
         <f t="shared" si="0"/>
         <v>3500</v>
       </c>
@@ -5103,7 +5056,7 @@
       <c r="O60" s="10">
         <v>2</v>
       </c>
-      <c r="P60" s="14">
+      <c r="P60" s="12">
         <f t="shared" si="0"/>
         <v>2200</v>
       </c>
@@ -5170,7 +5123,7 @@
       <c r="O61" s="10">
         <v>1</v>
       </c>
-      <c r="P61" s="14">
+      <c r="P61" s="12">
         <f t="shared" si="0"/>
         <v>1400</v>
       </c>
@@ -5237,7 +5190,7 @@
       <c r="O62" s="10">
         <v>3</v>
       </c>
-      <c r="P62" s="14">
+      <c r="P62" s="12">
         <f t="shared" si="0"/>
         <v>5100</v>
       </c>
@@ -5304,7 +5257,7 @@
       <c r="O63" s="10">
         <v>1</v>
       </c>
-      <c r="P63" s="14">
+      <c r="P63" s="12">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
@@ -5371,7 +5324,7 @@
       <c r="O64" s="10">
         <v>2</v>
       </c>
-      <c r="P64" s="14">
+      <c r="P64" s="12">
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
@@ -5438,7 +5391,7 @@
       <c r="O65" s="10">
         <v>1</v>
       </c>
-      <c r="P65" s="14">
+      <c r="P65" s="12">
         <f t="shared" si="0"/>
         <v>1800</v>
       </c>
@@ -5505,7 +5458,7 @@
       <c r="O66" s="10">
         <v>2</v>
       </c>
-      <c r="P66" s="14">
+      <c r="P66" s="12">
         <f t="shared" si="0"/>
         <v>4600</v>
       </c>
@@ -5572,12 +5525,12 @@
       <c r="O67" s="10">
         <v>1</v>
       </c>
-      <c r="P67" s="14">
-        <f t="shared" ref="P67:P130" si="3">PRODUCT(N67,O67)</f>
+      <c r="P67" s="12">
+        <f t="shared" ref="P67:P130" si="3">N67*O67</f>
         <v>2600</v>
       </c>
       <c r="Q67" s="14">
-        <f t="shared" ref="Q67:Q130" si="4">IF(P67&gt;2000,P67*0.05,0)</f>
+        <f t="shared" ref="Q67:Q130" si="4">IF(P67&gt;2000,P67*5%,0)</f>
         <v>130</v>
       </c>
       <c r="R67" s="12">
@@ -5639,7 +5592,7 @@
       <c r="O68" s="10">
         <v>2</v>
       </c>
-      <c r="P68" s="14">
+      <c r="P68" s="12">
         <f t="shared" si="3"/>
         <v>2400</v>
       </c>
@@ -5706,7 +5659,7 @@
       <c r="O69" s="10">
         <v>2</v>
       </c>
-      <c r="P69" s="14">
+      <c r="P69" s="12">
         <f t="shared" si="3"/>
         <v>4000</v>
       </c>
@@ -5773,7 +5726,7 @@
       <c r="O70" s="10">
         <v>1</v>
       </c>
-      <c r="P70" s="14">
+      <c r="P70" s="12">
         <f t="shared" si="3"/>
         <v>1500</v>
       </c>
@@ -5840,7 +5793,7 @@
       <c r="O71" s="10">
         <v>1</v>
       </c>
-      <c r="P71" s="14">
+      <c r="P71" s="12">
         <f t="shared" si="3"/>
         <v>2500</v>
       </c>
@@ -5907,7 +5860,7 @@
       <c r="O72" s="10">
         <v>3</v>
       </c>
-      <c r="P72" s="14">
+      <c r="P72" s="12">
         <f t="shared" si="3"/>
         <v>5400</v>
       </c>
@@ -5974,7 +5927,7 @@
       <c r="O73" s="10">
         <v>3</v>
       </c>
-      <c r="P73" s="14">
+      <c r="P73" s="12">
         <f t="shared" si="3"/>
         <v>5100</v>
       </c>
@@ -6041,7 +5994,7 @@
       <c r="O74" s="10">
         <v>1</v>
       </c>
-      <c r="P74" s="14">
+      <c r="P74" s="12">
         <f t="shared" si="3"/>
         <v>2100</v>
       </c>
@@ -6108,7 +6061,7 @@
       <c r="O75" s="10">
         <v>1</v>
       </c>
-      <c r="P75" s="14">
+      <c r="P75" s="12">
         <f t="shared" si="3"/>
         <v>2100</v>
       </c>
@@ -6175,7 +6128,7 @@
       <c r="O76" s="10">
         <v>2</v>
       </c>
-      <c r="P76" s="14">
+      <c r="P76" s="12">
         <f t="shared" si="3"/>
         <v>2600</v>
       </c>
@@ -6242,7 +6195,7 @@
       <c r="O77" s="10">
         <v>2</v>
       </c>
-      <c r="P77" s="14">
+      <c r="P77" s="12">
         <f t="shared" si="3"/>
         <v>3000</v>
       </c>
@@ -6309,7 +6262,7 @@
       <c r="O78" s="10">
         <v>1</v>
       </c>
-      <c r="P78" s="14">
+      <c r="P78" s="12">
         <f t="shared" si="3"/>
         <v>1600</v>
       </c>
@@ -6376,7 +6329,7 @@
       <c r="O79" s="10">
         <v>1</v>
       </c>
-      <c r="P79" s="14">
+      <c r="P79" s="12">
         <f t="shared" si="3"/>
         <v>1800</v>
       </c>
@@ -6443,7 +6396,7 @@
       <c r="O80" s="10">
         <v>2</v>
       </c>
-      <c r="P80" s="14">
+      <c r="P80" s="12">
         <f t="shared" si="3"/>
         <v>4400</v>
       </c>
@@ -6510,7 +6463,7 @@
       <c r="O81" s="10">
         <v>1</v>
       </c>
-      <c r="P81" s="14">
+      <c r="P81" s="12">
         <f t="shared" si="3"/>
         <v>2500</v>
       </c>
@@ -6577,7 +6530,7 @@
       <c r="O82" s="10">
         <v>2</v>
       </c>
-      <c r="P82" s="14">
+      <c r="P82" s="12">
         <f t="shared" si="3"/>
         <v>2600</v>
       </c>
@@ -6644,7 +6597,7 @@
       <c r="O83" s="10">
         <v>1</v>
       </c>
-      <c r="P83" s="14">
+      <c r="P83" s="12">
         <f t="shared" si="3"/>
         <v>1600</v>
       </c>
@@ -6711,7 +6664,7 @@
       <c r="O84" s="10">
         <v>3</v>
       </c>
-      <c r="P84" s="14">
+      <c r="P84" s="12">
         <f t="shared" si="3"/>
         <v>5700</v>
       </c>
@@ -6778,7 +6731,7 @@
       <c r="O85" s="10">
         <v>1</v>
       </c>
-      <c r="P85" s="14">
+      <c r="P85" s="12">
         <f t="shared" si="3"/>
         <v>2200</v>
       </c>
@@ -6845,7 +6798,7 @@
       <c r="O86" s="10">
         <v>2</v>
       </c>
-      <c r="P86" s="14">
+      <c r="P86" s="12">
         <f t="shared" si="3"/>
         <v>4000</v>
       </c>
@@ -6912,7 +6865,7 @@
       <c r="O87" s="10">
         <v>1</v>
       </c>
-      <c r="P87" s="14">
+      <c r="P87" s="12">
         <f t="shared" si="3"/>
         <v>2300</v>
       </c>
@@ -6979,7 +6932,7 @@
       <c r="O88" s="10">
         <v>2</v>
       </c>
-      <c r="P88" s="14">
+      <c r="P88" s="12">
         <f t="shared" si="3"/>
         <v>6000</v>
       </c>
@@ -7046,7 +6999,7 @@
       <c r="O89" s="10">
         <v>1</v>
       </c>
-      <c r="P89" s="14">
+      <c r="P89" s="12">
         <f t="shared" si="3"/>
         <v>3500</v>
       </c>
@@ -7113,7 +7066,7 @@
       <c r="O90" s="10">
         <v>2</v>
       </c>
-      <c r="P90" s="14">
+      <c r="P90" s="12">
         <f t="shared" si="3"/>
         <v>2200</v>
       </c>
@@ -7180,7 +7133,7 @@
       <c r="O91" s="10">
         <v>1</v>
       </c>
-      <c r="P91" s="14">
+      <c r="P91" s="12">
         <f t="shared" si="3"/>
         <v>1400</v>
       </c>
@@ -7247,7 +7200,7 @@
       <c r="O92" s="10">
         <v>3</v>
       </c>
-      <c r="P92" s="14">
+      <c r="P92" s="12">
         <f t="shared" si="3"/>
         <v>5100</v>
       </c>
@@ -7314,7 +7267,7 @@
       <c r="O93" s="10">
         <v>3</v>
       </c>
-      <c r="P93" s="14">
+      <c r="P93" s="12">
         <f t="shared" si="3"/>
         <v>5100</v>
       </c>
@@ -7381,7 +7334,7 @@
       <c r="O94" s="10">
         <v>1</v>
       </c>
-      <c r="P94" s="14">
+      <c r="P94" s="12">
         <f t="shared" si="3"/>
         <v>2000</v>
       </c>
@@ -7448,7 +7401,7 @@
       <c r="O95" s="10">
         <v>1</v>
       </c>
-      <c r="P95" s="14">
+      <c r="P95" s="12">
         <f t="shared" si="3"/>
         <v>2000</v>
       </c>
@@ -7515,7 +7468,7 @@
       <c r="O96" s="10">
         <v>2</v>
       </c>
-      <c r="P96" s="14">
+      <c r="P96" s="12">
         <f t="shared" si="3"/>
         <v>3000</v>
       </c>
@@ -7582,7 +7535,7 @@
       <c r="O97" s="10">
         <v>2</v>
       </c>
-      <c r="P97" s="14">
+      <c r="P97" s="12">
         <f t="shared" si="3"/>
         <v>3000</v>
       </c>
@@ -7649,7 +7602,7 @@
       <c r="O98" s="10">
         <v>1</v>
       </c>
-      <c r="P98" s="14">
+      <c r="P98" s="12">
         <f t="shared" si="3"/>
         <v>1800</v>
       </c>
@@ -7716,7 +7669,7 @@
       <c r="O99" s="10">
         <v>1</v>
       </c>
-      <c r="P99" s="14">
+      <c r="P99" s="12">
         <f t="shared" si="3"/>
         <v>1800</v>
       </c>
@@ -7783,7 +7736,7 @@
       <c r="O100" s="10">
         <v>2</v>
       </c>
-      <c r="P100" s="14">
+      <c r="P100" s="12">
         <f t="shared" si="3"/>
         <v>4600</v>
       </c>
@@ -7850,7 +7803,7 @@
       <c r="O101" s="10">
         <v>2</v>
       </c>
-      <c r="P101" s="14">
+      <c r="P101" s="12">
         <f t="shared" si="3"/>
         <v>4600</v>
       </c>
@@ -7917,7 +7870,7 @@
       <c r="O102" s="10">
         <v>1</v>
       </c>
-      <c r="P102" s="14">
+      <c r="P102" s="12">
         <f t="shared" si="3"/>
         <v>2600</v>
       </c>
@@ -7984,7 +7937,7 @@
       <c r="O103" s="10">
         <v>1</v>
       </c>
-      <c r="P103" s="14">
+      <c r="P103" s="12">
         <f t="shared" si="3"/>
         <v>2600</v>
       </c>
@@ -8051,7 +8004,7 @@
       <c r="O104" s="10">
         <v>2</v>
       </c>
-      <c r="P104" s="14">
+      <c r="P104" s="12">
         <f t="shared" si="3"/>
         <v>2400</v>
       </c>
@@ -8118,7 +8071,7 @@
       <c r="O105" s="10">
         <v>2</v>
       </c>
-      <c r="P105" s="14">
+      <c r="P105" s="12">
         <f t="shared" si="3"/>
         <v>4000</v>
       </c>
@@ -8185,7 +8138,7 @@
       <c r="O106" s="10">
         <v>1</v>
       </c>
-      <c r="P106" s="14">
+      <c r="P106" s="12">
         <f t="shared" si="3"/>
         <v>1500</v>
       </c>
@@ -8252,7 +8205,7 @@
       <c r="O107" s="10">
         <v>1</v>
       </c>
-      <c r="P107" s="14">
+      <c r="P107" s="12">
         <f t="shared" si="3"/>
         <v>2500</v>
       </c>
@@ -8319,7 +8272,7 @@
       <c r="O108" s="10">
         <v>3</v>
       </c>
-      <c r="P108" s="14">
+      <c r="P108" s="12">
         <f t="shared" si="3"/>
         <v>5400</v>
       </c>
@@ -8386,7 +8339,7 @@
       <c r="O109" s="10">
         <v>3</v>
       </c>
-      <c r="P109" s="14">
+      <c r="P109" s="12">
         <f t="shared" si="3"/>
         <v>5100</v>
       </c>
@@ -8453,7 +8406,7 @@
       <c r="O110" s="10">
         <v>1</v>
       </c>
-      <c r="P110" s="14">
+      <c r="P110" s="12">
         <f t="shared" si="3"/>
         <v>2100</v>
       </c>
@@ -8520,7 +8473,7 @@
       <c r="O111" s="10">
         <v>1</v>
       </c>
-      <c r="P111" s="14">
+      <c r="P111" s="12">
         <f t="shared" si="3"/>
         <v>2100</v>
       </c>
@@ -8587,7 +8540,7 @@
       <c r="O112" s="10">
         <v>1</v>
       </c>
-      <c r="P112" s="14">
+      <c r="P112" s="12">
         <f t="shared" si="3"/>
         <v>2100</v>
       </c>
@@ -8654,7 +8607,7 @@
       <c r="O113" s="10">
         <v>2</v>
       </c>
-      <c r="P113" s="14">
+      <c r="P113" s="12">
         <f t="shared" si="3"/>
         <v>2600</v>
       </c>
@@ -8721,7 +8674,7 @@
       <c r="O114" s="10">
         <v>2</v>
       </c>
-      <c r="P114" s="14">
+      <c r="P114" s="12">
         <f t="shared" si="3"/>
         <v>2600</v>
       </c>
@@ -8788,7 +8741,7 @@
       <c r="O115" s="10">
         <v>2</v>
       </c>
-      <c r="P115" s="14">
+      <c r="P115" s="12">
         <f t="shared" si="3"/>
         <v>3000</v>
       </c>
@@ -8855,7 +8808,7 @@
       <c r="O116" s="10">
         <v>1</v>
       </c>
-      <c r="P116" s="14">
+      <c r="P116" s="12">
         <f t="shared" si="3"/>
         <v>1600</v>
       </c>
@@ -8922,7 +8875,7 @@
       <c r="O117" s="10">
         <v>1</v>
       </c>
-      <c r="P117" s="14">
+      <c r="P117" s="12">
         <f t="shared" si="3"/>
         <v>1600</v>
       </c>
@@ -8989,7 +8942,7 @@
       <c r="O118" s="10">
         <v>1</v>
       </c>
-      <c r="P118" s="14">
+      <c r="P118" s="12">
         <f t="shared" si="3"/>
         <v>1800</v>
       </c>
@@ -9056,7 +9009,7 @@
       <c r="O119" s="10">
         <v>2</v>
       </c>
-      <c r="P119" s="14">
+      <c r="P119" s="12">
         <f t="shared" si="3"/>
         <v>4400</v>
       </c>
@@ -9123,7 +9076,7 @@
       <c r="O120" s="10">
         <v>2</v>
       </c>
-      <c r="P120" s="14">
+      <c r="P120" s="12">
         <f t="shared" si="3"/>
         <v>4400</v>
       </c>
@@ -9190,7 +9143,7 @@
       <c r="O121" s="10">
         <v>2</v>
       </c>
-      <c r="P121" s="14">
+      <c r="P121" s="12">
         <f t="shared" si="3"/>
         <v>6400</v>
       </c>
@@ -9257,7 +9210,7 @@
       <c r="O122" s="10">
         <v>1</v>
       </c>
-      <c r="P122" s="14">
+      <c r="P122" s="12">
         <f t="shared" si="3"/>
         <v>2500</v>
       </c>
@@ -9324,7 +9277,7 @@
       <c r="O123" s="10">
         <v>1</v>
       </c>
-      <c r="P123" s="14">
+      <c r="P123" s="12">
         <f t="shared" si="3"/>
         <v>2500</v>
       </c>
@@ -9391,7 +9344,7 @@
       <c r="O124" s="10">
         <v>1</v>
       </c>
-      <c r="P124" s="14">
+      <c r="P124" s="12">
         <f t="shared" si="3"/>
         <v>3700</v>
       </c>
@@ -9458,7 +9411,7 @@
       <c r="O125" s="10">
         <v>2</v>
       </c>
-      <c r="P125" s="14">
+      <c r="P125" s="12">
         <f t="shared" si="3"/>
         <v>2600</v>
       </c>
@@ -9525,7 +9478,7 @@
       <c r="O126" s="10">
         <v>1</v>
       </c>
-      <c r="P126" s="14">
+      <c r="P126" s="12">
         <f t="shared" si="3"/>
         <v>1600</v>
       </c>
@@ -9592,7 +9545,7 @@
       <c r="O127" s="10">
         <v>3</v>
       </c>
-      <c r="P127" s="14">
+      <c r="P127" s="12">
         <f t="shared" si="3"/>
         <v>5700</v>
       </c>
@@ -9659,7 +9612,7 @@
       <c r="O128" s="10">
         <v>1</v>
       </c>
-      <c r="P128" s="14">
+      <c r="P128" s="12">
         <f t="shared" si="3"/>
         <v>2200</v>
       </c>
@@ -9726,7 +9679,7 @@
       <c r="O129" s="10">
         <v>2</v>
       </c>
-      <c r="P129" s="14">
+      <c r="P129" s="12">
         <f t="shared" si="3"/>
         <v>4000</v>
       </c>
@@ -9793,7 +9746,7 @@
       <c r="O130" s="10">
         <v>1</v>
       </c>
-      <c r="P130" s="14">
+      <c r="P130" s="12">
         <f t="shared" si="3"/>
         <v>2300</v>
       </c>
@@ -9860,12 +9813,12 @@
       <c r="O131" s="10">
         <v>2</v>
       </c>
-      <c r="P131" s="14">
-        <f t="shared" ref="P131:P194" si="5">PRODUCT(N131,O131)</f>
+      <c r="P131" s="12">
+        <f t="shared" ref="P131:P194" si="5">N131*O131</f>
         <v>6000</v>
       </c>
       <c r="Q131" s="14">
-        <f t="shared" ref="Q131:Q194" si="6">IF(P131&gt;2000,P131*0.05,0)</f>
+        <f t="shared" ref="Q131:Q194" si="6">IF(P131&gt;2000,P131*5%,0)</f>
         <v>300</v>
       </c>
       <c r="R131" s="12">
@@ -9927,7 +9880,7 @@
       <c r="O132" s="10">
         <v>1</v>
       </c>
-      <c r="P132" s="14">
+      <c r="P132" s="12">
         <f t="shared" si="5"/>
         <v>3500</v>
       </c>
@@ -9994,7 +9947,7 @@
       <c r="O133" s="10">
         <v>2</v>
       </c>
-      <c r="P133" s="14">
+      <c r="P133" s="12">
         <f t="shared" si="5"/>
         <v>2200</v>
       </c>
@@ -10061,7 +10014,7 @@
       <c r="O134" s="10">
         <v>2</v>
       </c>
-      <c r="P134" s="14">
+      <c r="P134" s="12">
         <f t="shared" si="5"/>
         <v>2200</v>
       </c>
@@ -10128,7 +10081,7 @@
       <c r="O135" s="10">
         <v>1</v>
       </c>
-      <c r="P135" s="14">
+      <c r="P135" s="12">
         <f t="shared" si="5"/>
         <v>1400</v>
       </c>
@@ -10195,7 +10148,7 @@
       <c r="O136" s="10">
         <v>1</v>
       </c>
-      <c r="P136" s="14">
+      <c r="P136" s="12">
         <f t="shared" si="5"/>
         <v>1400</v>
       </c>
@@ -10262,7 +10215,7 @@
       <c r="O137" s="10">
         <v>3</v>
       </c>
-      <c r="P137" s="14">
+      <c r="P137" s="12">
         <f t="shared" si="5"/>
         <v>5100</v>
       </c>
@@ -10329,7 +10282,7 @@
       <c r="O138" s="10">
         <v>3</v>
       </c>
-      <c r="P138" s="14">
+      <c r="P138" s="12">
         <f t="shared" si="5"/>
         <v>5100</v>
       </c>
@@ -10396,7 +10349,7 @@
       <c r="O139" s="10">
         <v>1</v>
       </c>
-      <c r="P139" s="14">
+      <c r="P139" s="12">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
@@ -10463,7 +10416,7 @@
       <c r="O140" s="10">
         <v>1</v>
       </c>
-      <c r="P140" s="14">
+      <c r="P140" s="12">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
@@ -10530,7 +10483,7 @@
       <c r="O141" s="10">
         <v>2</v>
       </c>
-      <c r="P141" s="14">
+      <c r="P141" s="12">
         <f t="shared" si="5"/>
         <v>3000</v>
       </c>
@@ -10597,7 +10550,7 @@
       <c r="O142" s="10">
         <v>2</v>
       </c>
-      <c r="P142" s="14">
+      <c r="P142" s="12">
         <f t="shared" si="5"/>
         <v>3000</v>
       </c>
@@ -10664,7 +10617,7 @@
       <c r="O143" s="10">
         <v>1</v>
       </c>
-      <c r="P143" s="14">
+      <c r="P143" s="12">
         <f t="shared" si="5"/>
         <v>1800</v>
       </c>
@@ -10731,7 +10684,7 @@
       <c r="O144" s="10">
         <v>1</v>
       </c>
-      <c r="P144" s="14">
+      <c r="P144" s="12">
         <f t="shared" si="5"/>
         <v>1800</v>
       </c>
@@ -10798,7 +10751,7 @@
       <c r="O145" s="10">
         <v>2</v>
       </c>
-      <c r="P145" s="14">
+      <c r="P145" s="12">
         <f t="shared" si="5"/>
         <v>4600</v>
       </c>
@@ -10865,7 +10818,7 @@
       <c r="O146" s="10">
         <v>2</v>
       </c>
-      <c r="P146" s="14">
+      <c r="P146" s="12">
         <f t="shared" si="5"/>
         <v>4600</v>
       </c>
@@ -10932,7 +10885,7 @@
       <c r="O147" s="10">
         <v>1</v>
       </c>
-      <c r="P147" s="14">
+      <c r="P147" s="12">
         <f t="shared" si="5"/>
         <v>2600</v>
       </c>
@@ -10999,7 +10952,7 @@
       <c r="O148" s="10">
         <v>1</v>
       </c>
-      <c r="P148" s="14">
+      <c r="P148" s="12">
         <f t="shared" si="5"/>
         <v>2600</v>
       </c>
@@ -11066,7 +11019,7 @@
       <c r="O149" s="10">
         <v>2</v>
       </c>
-      <c r="P149" s="14">
+      <c r="P149" s="12">
         <f t="shared" si="5"/>
         <v>300</v>
       </c>
@@ -11133,7 +11086,7 @@
       <c r="O150" s="10">
         <v>2</v>
       </c>
-      <c r="P150" s="14">
+      <c r="P150" s="12">
         <f t="shared" si="5"/>
         <v>2400</v>
       </c>
@@ -11200,7 +11153,7 @@
       <c r="O151" s="10">
         <v>1</v>
       </c>
-      <c r="P151" s="14">
+      <c r="P151" s="12">
         <f t="shared" si="5"/>
         <v>200</v>
       </c>
@@ -11267,7 +11220,7 @@
       <c r="O152" s="10">
         <v>1</v>
       </c>
-      <c r="P152" s="14">
+      <c r="P152" s="12">
         <f t="shared" si="5"/>
         <v>1500</v>
       </c>
@@ -11334,7 +11287,7 @@
       <c r="O153" s="10">
         <v>3</v>
       </c>
-      <c r="P153" s="14">
+      <c r="P153" s="12">
         <f t="shared" si="5"/>
         <v>1200</v>
       </c>
@@ -11401,7 +11354,7 @@
       <c r="O154" s="10">
         <v>3</v>
       </c>
-      <c r="P154" s="14">
+      <c r="P154" s="12">
         <f t="shared" si="5"/>
         <v>5400</v>
       </c>
@@ -11468,7 +11421,7 @@
       <c r="O155" s="10">
         <v>1</v>
       </c>
-      <c r="P155" s="14">
+      <c r="P155" s="12">
         <f t="shared" si="5"/>
         <v>600</v>
       </c>
@@ -11535,7 +11488,7 @@
       <c r="O156" s="10">
         <v>1</v>
       </c>
-      <c r="P156" s="14">
+      <c r="P156" s="12">
         <f t="shared" si="5"/>
         <v>2100</v>
       </c>
@@ -11602,7 +11555,7 @@
       <c r="O157" s="10">
         <v>2</v>
       </c>
-      <c r="P157" s="14">
+      <c r="P157" s="12">
         <f t="shared" si="5"/>
         <v>3600</v>
       </c>
@@ -11669,7 +11622,7 @@
       <c r="O158" s="10">
         <v>2</v>
       </c>
-      <c r="P158" s="14">
+      <c r="P158" s="12">
         <f t="shared" si="5"/>
         <v>2600</v>
       </c>
@@ -11736,7 +11689,7 @@
       <c r="O159" s="10">
         <v>1</v>
       </c>
-      <c r="P159" s="14">
+      <c r="P159" s="12">
         <f t="shared" si="5"/>
         <v>2400</v>
       </c>
@@ -11803,7 +11756,7 @@
       <c r="O160" s="10">
         <v>1</v>
       </c>
-      <c r="P160" s="14">
+      <c r="P160" s="12">
         <f t="shared" si="5"/>
         <v>1600</v>
       </c>
@@ -11870,7 +11823,7 @@
       <c r="O161" s="10">
         <v>2</v>
       </c>
-      <c r="P161" s="14">
+      <c r="P161" s="12">
         <f t="shared" si="5"/>
         <v>4200</v>
       </c>
@@ -11937,7 +11890,7 @@
       <c r="O162" s="10">
         <v>2</v>
       </c>
-      <c r="P162" s="14">
+      <c r="P162" s="12">
         <f t="shared" si="5"/>
         <v>4400</v>
       </c>
@@ -12004,7 +11957,7 @@
       <c r="O163" s="10">
         <v>1</v>
       </c>
-      <c r="P163" s="14">
+      <c r="P163" s="12">
         <f t="shared" si="5"/>
         <v>2600</v>
       </c>
@@ -12071,7 +12024,7 @@
       <c r="O164" s="10">
         <v>1</v>
       </c>
-      <c r="P164" s="14">
+      <c r="P164" s="12">
         <f t="shared" si="5"/>
         <v>2500</v>
       </c>
@@ -12138,7 +12091,7 @@
       <c r="O165" s="10">
         <v>2</v>
       </c>
-      <c r="P165" s="14">
+      <c r="P165" s="12">
         <f t="shared" si="5"/>
         <v>2400</v>
       </c>
@@ -12205,7 +12158,7 @@
       <c r="O166" s="10">
         <v>2</v>
       </c>
-      <c r="P166" s="14">
+      <c r="P166" s="12">
         <f t="shared" si="5"/>
         <v>2400</v>
       </c>
@@ -12272,7 +12225,7 @@
       <c r="O167" s="10">
         <v>1</v>
       </c>
-      <c r="P167" s="14">
+      <c r="P167" s="12">
         <f t="shared" si="5"/>
         <v>1500</v>
       </c>
@@ -12339,7 +12292,7 @@
       <c r="O168" s="10">
         <v>1</v>
       </c>
-      <c r="P168" s="14">
+      <c r="P168" s="12">
         <f t="shared" si="5"/>
         <v>1500</v>
       </c>
@@ -12406,7 +12359,7 @@
       <c r="O169" s="10">
         <v>3</v>
       </c>
-      <c r="P169" s="14">
+      <c r="P169" s="12">
         <f t="shared" si="5"/>
         <v>8400</v>
       </c>
@@ -12473,7 +12426,7 @@
       <c r="O170" s="10">
         <v>2</v>
       </c>
-      <c r="P170" s="14">
+      <c r="P170" s="12">
         <f t="shared" si="5"/>
         <v>2200</v>
       </c>
@@ -12540,7 +12493,7 @@
       <c r="O171" s="10">
         <v>3</v>
       </c>
-      <c r="P171" s="14">
+      <c r="P171" s="12">
         <f t="shared" si="5"/>
         <v>8400</v>
       </c>
@@ -12607,7 +12560,7 @@
       <c r="O172" s="10">
         <v>1</v>
       </c>
-      <c r="P172" s="14">
+      <c r="P172" s="12">
         <f t="shared" si="5"/>
         <v>3200</v>
       </c>
@@ -12674,7 +12627,7 @@
       <c r="O173" s="10">
         <v>1</v>
       </c>
-      <c r="P173" s="14">
+      <c r="P173" s="12">
         <f t="shared" si="5"/>
         <v>1400</v>
       </c>
@@ -12741,7 +12694,7 @@
       <c r="O174" s="10">
         <v>1</v>
       </c>
-      <c r="P174" s="14">
+      <c r="P174" s="12">
         <f t="shared" si="5"/>
         <v>3200</v>
       </c>
@@ -12808,7 +12761,7 @@
       <c r="O175" s="10">
         <v>1</v>
       </c>
-      <c r="P175" s="14">
+      <c r="P175" s="12">
         <f t="shared" si="5"/>
         <v>1400</v>
       </c>
@@ -12875,7 +12828,7 @@
       <c r="O176" s="10">
         <v>2</v>
       </c>
-      <c r="P176" s="14">
+      <c r="P176" s="12">
         <f t="shared" si="5"/>
         <v>4000</v>
       </c>
@@ -12942,7 +12895,7 @@
       <c r="O177" s="10">
         <v>3</v>
       </c>
-      <c r="P177" s="14">
+      <c r="P177" s="12">
         <f t="shared" si="5"/>
         <v>5100</v>
       </c>
@@ -13009,7 +12962,7 @@
       <c r="O178" s="10">
         <v>2</v>
       </c>
-      <c r="P178" s="14">
+      <c r="P178" s="12">
         <f t="shared" si="5"/>
         <v>4000</v>
       </c>
@@ -13076,7 +13029,7 @@
       <c r="O179" s="10">
         <v>3</v>
       </c>
-      <c r="P179" s="14">
+      <c r="P179" s="12">
         <f t="shared" si="5"/>
         <v>5100</v>
       </c>
@@ -13143,7 +13096,7 @@
       <c r="O180" s="10">
         <v>1</v>
       </c>
-      <c r="P180" s="14">
+      <c r="P180" s="12">
         <f t="shared" si="5"/>
         <v>2400</v>
       </c>
@@ -13210,7 +13163,7 @@
       <c r="O181" s="10">
         <v>1</v>
       </c>
-      <c r="P181" s="14">
+      <c r="P181" s="12">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
@@ -13277,7 +13230,7 @@
       <c r="O182" s="10">
         <v>1</v>
       </c>
-      <c r="P182" s="14">
+      <c r="P182" s="12">
         <f t="shared" si="5"/>
         <v>2400</v>
       </c>
@@ -13344,7 +13297,7 @@
       <c r="O183" s="10">
         <v>1</v>
       </c>
-      <c r="P183" s="14">
+      <c r="P183" s="12">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
@@ -13411,7 +13364,7 @@
       <c r="O184" s="10">
         <v>2</v>
       </c>
-      <c r="P184" s="14">
+      <c r="P184" s="12">
         <f t="shared" si="5"/>
         <v>5800</v>
       </c>
@@ -13478,7 +13431,7 @@
       <c r="O185" s="10">
         <v>2</v>
       </c>
-      <c r="P185" s="14">
+      <c r="P185" s="12">
         <f t="shared" si="5"/>
         <v>3000</v>
       </c>
@@ -13545,7 +13498,7 @@
       <c r="O186" s="10">
         <v>2</v>
       </c>
-      <c r="P186" s="14">
+      <c r="P186" s="12">
         <f t="shared" si="5"/>
         <v>5800</v>
       </c>
@@ -13612,7 +13565,7 @@
       <c r="O187" s="10">
         <v>2</v>
       </c>
-      <c r="P187" s="14">
+      <c r="P187" s="12">
         <f t="shared" si="5"/>
         <v>3000</v>
       </c>
@@ -13679,7 +13632,7 @@
       <c r="O188" s="10">
         <v>1</v>
       </c>
-      <c r="P188" s="14">
+      <c r="P188" s="12">
         <f t="shared" si="5"/>
         <v>3300</v>
       </c>
@@ -13746,7 +13699,7 @@
       <c r="O189" s="10">
         <v>1</v>
       </c>
-      <c r="P189" s="14">
+      <c r="P189" s="12">
         <f t="shared" si="5"/>
         <v>1800</v>
       </c>
@@ -13813,7 +13766,7 @@
       <c r="O190" s="10">
         <v>1</v>
       </c>
-      <c r="P190" s="14">
+      <c r="P190" s="12">
         <f t="shared" si="5"/>
         <v>1800</v>
       </c>
@@ -13880,7 +13833,7 @@
       <c r="O191" s="10">
         <v>2</v>
       </c>
-      <c r="P191" s="14">
+      <c r="P191" s="12">
         <f t="shared" si="5"/>
         <v>4600</v>
       </c>
@@ -13947,7 +13900,7 @@
       <c r="O192" s="10">
         <v>2</v>
       </c>
-      <c r="P192" s="14">
+      <c r="P192" s="12">
         <f t="shared" si="5"/>
         <v>4600</v>
       </c>
@@ -14014,7 +13967,7 @@
       <c r="O193" s="10">
         <v>1</v>
       </c>
-      <c r="P193" s="14">
+      <c r="P193" s="12">
         <f t="shared" si="5"/>
         <v>2600</v>
       </c>
@@ -14081,7 +14034,7 @@
       <c r="O194" s="10">
         <v>1</v>
       </c>
-      <c r="P194" s="14">
+      <c r="P194" s="12">
         <f t="shared" si="5"/>
         <v>2600</v>
       </c>
@@ -14148,12 +14101,12 @@
       <c r="O195" s="10">
         <v>2</v>
       </c>
-      <c r="P195" s="14">
-        <f t="shared" ref="P195:P246" si="7">PRODUCT(N195,O195)</f>
+      <c r="P195" s="12">
+        <f t="shared" ref="P195:P246" si="7">N195*O195</f>
         <v>2400</v>
       </c>
       <c r="Q195" s="14">
-        <f t="shared" ref="Q195:Q246" si="8">IF(P195&gt;2000,P195*0.05,0)</f>
+        <f t="shared" ref="Q195:Q246" si="8">IF(P195&gt;2000,P195*5%,0)</f>
         <v>120</v>
       </c>
       <c r="R195" s="12">
@@ -14215,7 +14168,7 @@
       <c r="O196" s="10">
         <v>2</v>
       </c>
-      <c r="P196" s="14">
+      <c r="P196" s="12">
         <f t="shared" si="7"/>
         <v>4000</v>
       </c>
@@ -14282,7 +14235,7 @@
       <c r="O197" s="10">
         <v>2</v>
       </c>
-      <c r="P197" s="14">
+      <c r="P197" s="12">
         <f t="shared" si="7"/>
         <v>2400</v>
       </c>
@@ -14349,7 +14302,7 @@
       <c r="O198" s="10">
         <v>1</v>
       </c>
-      <c r="P198" s="14">
+      <c r="P198" s="12">
         <f t="shared" si="7"/>
         <v>1500</v>
       </c>
@@ -14416,7 +14369,7 @@
       <c r="O199" s="10">
         <v>1</v>
       </c>
-      <c r="P199" s="14">
+      <c r="P199" s="12">
         <f t="shared" si="7"/>
         <v>2500</v>
       </c>
@@ -14483,7 +14436,7 @@
       <c r="O200" s="10">
         <v>1</v>
       </c>
-      <c r="P200" s="14">
+      <c r="P200" s="12">
         <f t="shared" si="7"/>
         <v>1500</v>
       </c>
@@ -14550,7 +14503,7 @@
       <c r="O201" s="10">
         <v>3</v>
       </c>
-      <c r="P201" s="14">
+      <c r="P201" s="12">
         <f t="shared" si="7"/>
         <v>5400</v>
       </c>
@@ -14617,7 +14570,7 @@
       <c r="O202" s="10">
         <v>3</v>
       </c>
-      <c r="P202" s="14">
+      <c r="P202" s="12">
         <f t="shared" si="7"/>
         <v>5100</v>
       </c>
@@ -14684,7 +14637,7 @@
       <c r="O203" s="10">
         <v>3</v>
       </c>
-      <c r="P203" s="14">
+      <c r="P203" s="12">
         <f t="shared" si="7"/>
         <v>5400</v>
       </c>
@@ -14751,7 +14704,7 @@
       <c r="O204" s="10">
         <v>1</v>
       </c>
-      <c r="P204" s="14">
+      <c r="P204" s="12">
         <f t="shared" si="7"/>
         <v>2100</v>
       </c>
@@ -14818,7 +14771,7 @@
       <c r="O205" s="10">
         <v>1</v>
       </c>
-      <c r="P205" s="14">
+      <c r="P205" s="12">
         <f t="shared" si="7"/>
         <v>2100</v>
       </c>
@@ -14885,7 +14838,7 @@
       <c r="O206" s="10">
         <v>1</v>
       </c>
-      <c r="P206" s="14">
+      <c r="P206" s="12">
         <f t="shared" si="7"/>
         <v>2100</v>
       </c>
@@ -14952,7 +14905,7 @@
       <c r="O207" s="10">
         <v>2</v>
       </c>
-      <c r="P207" s="14">
+      <c r="P207" s="12">
         <f t="shared" si="7"/>
         <v>2600</v>
       </c>
@@ -15019,7 +14972,7 @@
       <c r="O208" s="10">
         <v>2</v>
       </c>
-      <c r="P208" s="14">
+      <c r="P208" s="12">
         <f t="shared" si="7"/>
         <v>3000</v>
       </c>
@@ -15086,7 +15039,7 @@
       <c r="O209" s="10">
         <v>2</v>
       </c>
-      <c r="P209" s="14">
+      <c r="P209" s="12">
         <f t="shared" si="7"/>
         <v>2600</v>
       </c>
@@ -15153,7 +15106,7 @@
       <c r="O210" s="10">
         <v>1</v>
       </c>
-      <c r="P210" s="14">
+      <c r="P210" s="12">
         <f t="shared" si="7"/>
         <v>1600</v>
       </c>
@@ -15220,7 +15173,7 @@
       <c r="O211" s="10">
         <v>1</v>
       </c>
-      <c r="P211" s="14">
+      <c r="P211" s="12">
         <f t="shared" si="7"/>
         <v>1800</v>
       </c>
@@ -15287,7 +15240,7 @@
       <c r="O212" s="10">
         <v>1</v>
       </c>
-      <c r="P212" s="14">
+      <c r="P212" s="12">
         <f t="shared" si="7"/>
         <v>1600</v>
       </c>
@@ -15354,7 +15307,7 @@
       <c r="O213" s="10">
         <v>2</v>
       </c>
-      <c r="P213" s="14">
+      <c r="P213" s="12">
         <f t="shared" si="7"/>
         <v>4400</v>
       </c>
@@ -15421,7 +15374,7 @@
       <c r="O214" s="10">
         <v>2</v>
       </c>
-      <c r="P214" s="14">
+      <c r="P214" s="12">
         <f t="shared" si="7"/>
         <v>6400</v>
       </c>
@@ -15488,7 +15441,7 @@
       <c r="O215" s="10">
         <v>2</v>
       </c>
-      <c r="P215" s="14">
+      <c r="P215" s="12">
         <f t="shared" si="7"/>
         <v>4400</v>
       </c>
@@ -15555,7 +15508,7 @@
       <c r="O216" s="10">
         <v>1</v>
       </c>
-      <c r="P216" s="14">
+      <c r="P216" s="12">
         <f t="shared" si="7"/>
         <v>2500</v>
       </c>
@@ -15622,7 +15575,7 @@
       <c r="O217" s="10">
         <v>1</v>
       </c>
-      <c r="P217" s="14">
+      <c r="P217" s="12">
         <f t="shared" si="7"/>
         <v>3700</v>
       </c>
@@ -15689,7 +15642,7 @@
       <c r="O218" s="10">
         <v>1</v>
       </c>
-      <c r="P218" s="14">
+      <c r="P218" s="12">
         <f t="shared" si="7"/>
         <v>2500</v>
       </c>
@@ -15756,7 +15709,7 @@
       <c r="O219" s="10">
         <v>2</v>
       </c>
-      <c r="P219" s="14">
+      <c r="P219" s="12">
         <f t="shared" si="7"/>
         <v>2600</v>
       </c>
@@ -15823,7 +15776,7 @@
       <c r="O220" s="10">
         <v>2</v>
       </c>
-      <c r="P220" s="14">
+      <c r="P220" s="12">
         <f t="shared" si="7"/>
         <v>2600</v>
       </c>
@@ -15890,7 +15843,7 @@
       <c r="O221" s="10">
         <v>1</v>
       </c>
-      <c r="P221" s="14">
+      <c r="P221" s="12">
         <f t="shared" si="7"/>
         <v>1600</v>
       </c>
@@ -15957,7 +15910,7 @@
       <c r="O222" s="10">
         <v>1</v>
       </c>
-      <c r="P222" s="14">
+      <c r="P222" s="12">
         <f t="shared" si="7"/>
         <v>1600</v>
       </c>
@@ -16024,7 +15977,7 @@
       <c r="O223" s="10">
         <v>3</v>
       </c>
-      <c r="P223" s="14">
+      <c r="P223" s="12">
         <f t="shared" si="7"/>
         <v>5700</v>
       </c>
@@ -16091,7 +16044,7 @@
       <c r="O224" s="10">
         <v>3</v>
       </c>
-      <c r="P224" s="14">
+      <c r="P224" s="12">
         <f t="shared" si="7"/>
         <v>5700</v>
       </c>
@@ -16158,7 +16111,7 @@
       <c r="O225" s="10">
         <v>1</v>
       </c>
-      <c r="P225" s="14">
+      <c r="P225" s="12">
         <f t="shared" si="7"/>
         <v>2200</v>
       </c>
@@ -16225,7 +16178,7 @@
       <c r="O226" s="10">
         <v>1</v>
       </c>
-      <c r="P226" s="14">
+      <c r="P226" s="12">
         <f t="shared" si="7"/>
         <v>2200</v>
       </c>
@@ -16292,7 +16245,7 @@
       <c r="O227" s="10">
         <v>2</v>
       </c>
-      <c r="P227" s="14">
+      <c r="P227" s="12">
         <f t="shared" si="7"/>
         <v>4000</v>
       </c>
@@ -16359,7 +16312,7 @@
       <c r="O228" s="10">
         <v>1</v>
       </c>
-      <c r="P228" s="14">
+      <c r="P228" s="12">
         <f t="shared" si="7"/>
         <v>2300</v>
       </c>
@@ -16426,7 +16379,7 @@
       <c r="O229" s="10">
         <v>2</v>
       </c>
-      <c r="P229" s="14">
+      <c r="P229" s="12">
         <f t="shared" si="7"/>
         <v>6000</v>
       </c>
@@ -16493,7 +16446,7 @@
       <c r="O230" s="10">
         <v>1</v>
       </c>
-      <c r="P230" s="14">
+      <c r="P230" s="12">
         <f t="shared" si="7"/>
         <v>3500</v>
       </c>
@@ -16560,7 +16513,7 @@
       <c r="O231" s="10">
         <v>2</v>
       </c>
-      <c r="P231" s="14">
+      <c r="P231" s="12">
         <f t="shared" si="7"/>
         <v>2200</v>
       </c>
@@ -16627,7 +16580,7 @@
       <c r="O232" s="10">
         <v>2</v>
       </c>
-      <c r="P232" s="14">
+      <c r="P232" s="12">
         <f t="shared" si="7"/>
         <v>2200</v>
       </c>
@@ -16694,7 +16647,7 @@
       <c r="O233" s="10">
         <v>1</v>
       </c>
-      <c r="P233" s="14">
+      <c r="P233" s="12">
         <f t="shared" si="7"/>
         <v>1400</v>
       </c>
@@ -16761,7 +16714,7 @@
       <c r="O234" s="10">
         <v>1</v>
       </c>
-      <c r="P234" s="14">
+      <c r="P234" s="12">
         <f t="shared" si="7"/>
         <v>1400</v>
       </c>
@@ -16828,7 +16781,7 @@
       <c r="O235" s="10">
         <v>3</v>
       </c>
-      <c r="P235" s="14">
+      <c r="P235" s="12">
         <f t="shared" si="7"/>
         <v>5100</v>
       </c>
@@ -16895,7 +16848,7 @@
       <c r="O236" s="10">
         <v>3</v>
       </c>
-      <c r="P236" s="14">
+      <c r="P236" s="12">
         <f t="shared" si="7"/>
         <v>5100</v>
       </c>
@@ -16962,7 +16915,7 @@
       <c r="O237" s="10">
         <v>1</v>
       </c>
-      <c r="P237" s="14">
+      <c r="P237" s="12">
         <f t="shared" si="7"/>
         <v>2000</v>
       </c>
@@ -17029,7 +16982,7 @@
       <c r="O238" s="10">
         <v>1</v>
       </c>
-      <c r="P238" s="14">
+      <c r="P238" s="12">
         <f t="shared" si="7"/>
         <v>2000</v>
       </c>
@@ -17096,7 +17049,7 @@
       <c r="O239" s="10">
         <v>2</v>
       </c>
-      <c r="P239" s="14">
+      <c r="P239" s="12">
         <f t="shared" si="7"/>
         <v>3000</v>
       </c>
@@ -17163,7 +17116,7 @@
       <c r="O240" s="10">
         <v>2</v>
       </c>
-      <c r="P240" s="14">
+      <c r="P240" s="12">
         <f t="shared" si="7"/>
         <v>3000</v>
       </c>
@@ -17230,7 +17183,7 @@
       <c r="O241" s="10">
         <v>1</v>
       </c>
-      <c r="P241" s="14">
+      <c r="P241" s="12">
         <f t="shared" si="7"/>
         <v>1800</v>
       </c>
@@ -17297,7 +17250,7 @@
       <c r="O242" s="10">
         <v>1</v>
       </c>
-      <c r="P242" s="14">
+      <c r="P242" s="12">
         <f t="shared" si="7"/>
         <v>1800</v>
       </c>
@@ -17364,7 +17317,7 @@
       <c r="O243" s="10">
         <v>2</v>
       </c>
-      <c r="P243" s="14">
+      <c r="P243" s="12">
         <f t="shared" si="7"/>
         <v>4600</v>
       </c>
@@ -17431,7 +17384,7 @@
       <c r="O244" s="10">
         <v>2</v>
       </c>
-      <c r="P244" s="14">
+      <c r="P244" s="12">
         <f t="shared" si="7"/>
         <v>4600</v>
       </c>
@@ -17498,7 +17451,7 @@
       <c r="O245" s="10">
         <v>1</v>
       </c>
-      <c r="P245" s="14">
+      <c r="P245" s="12">
         <f t="shared" si="7"/>
         <v>1600</v>
       </c>
@@ -17565,7 +17518,7 @@
       <c r="O246" s="10">
         <v>1</v>
       </c>
-      <c r="P246" s="14">
+      <c r="P246" s="12">
         <f t="shared" si="7"/>
         <v>2600</v>
       </c>
@@ -17609,9 +17562,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
 </worksheet>
 </file>
 
